--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2536398.31478562</v>
+        <v>2530658.200077401</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095092</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>45.26566998180881</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>215.988943921571</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>326.8617025836455</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958792</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>26.75866868094711</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.8712504714823</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.70865780356723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>159.4432253296167</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8980292624121</v>
+        <v>102.8354606768648</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4385270475933</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>152.4531265631661</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>183.8165106145813</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5851113727656</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>23.2855180909499</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>246.7287868412169</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>95.60231281716823</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>43.31785343913975</v>
+        <v>142.6307342906311</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,10 +1144,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>352.3510486282732</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>116.0924447782237</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1299,16 +1299,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>59.66385641544551</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>41.65592056208439</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881778</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1429,7 +1429,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>167.2490760216204</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>71.23695738819178</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>56.57645366377792</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>148.5787809024415</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1824,16 +1824,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174145</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486461</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>68.37173631439946</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>114.4746605491551</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>173.6284504626317</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>71.86465198997435</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>60.43691176767093</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>120.8154218968301</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620239</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>23.24198864739245</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3006,10 +3006,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>16.97759865613162</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>20.18624009875676</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3246,16 +3246,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3435,10 +3435,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>87.22506181228431</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>71.6703719699175</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>100.0025634447707</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>128.2808324720647</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3757,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>294.607764387321</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292592</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>79.70020712953253</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>141.1670621529075</v>
       </c>
     </row>
     <row r="44">
@@ -4033,7 +4033,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4194,16 +4194,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>196.3027426626659</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1975.311978709186</v>
+        <v>2319.72841171347</v>
       </c>
       <c r="C2" t="n">
-        <v>1975.311978709186</v>
+        <v>1950.765894773058</v>
       </c>
       <c r="D2" t="n">
-        <v>1757.141328283357</v>
+        <v>1592.500196166307</v>
       </c>
       <c r="E2" t="n">
-        <v>1371.353075685113</v>
+        <v>1206.711943568063</v>
       </c>
       <c r="F2" t="n">
-        <v>960.3671708955053</v>
+        <v>795.7260387784555</v>
       </c>
       <c r="G2" t="n">
-        <v>542.1134942738261</v>
+        <v>377.4723621567762</v>
       </c>
       <c r="H2" t="n">
-        <v>211.9501583307497</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369997</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015916</v>
+        <v>138.9642385015914</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060727</v>
+        <v>397.076446806072</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927223</v>
+        <v>769.564092592721</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689017</v>
+        <v>1200.634914689015</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811687</v>
+        <v>1624.048915811684</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.67911263368</v>
+        <v>1978.679112633677</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054141</v>
+        <v>2243.673398054137</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684998</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.451310684998</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.451310684998</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.451310684998</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="U2" t="n">
-        <v>2365.451310684998</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="V2" t="n">
-        <v>2365.451310684998</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="W2" t="n">
-        <v>2365.451310684998</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="X2" t="n">
-        <v>2365.451310684998</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="Y2" t="n">
-        <v>1975.311978709186</v>
+        <v>2365.451310684994</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>703.4974363982317</v>
+        <v>988.8568241913216</v>
       </c>
       <c r="C3" t="n">
-        <v>529.0444071171047</v>
+        <v>814.4037949101946</v>
       </c>
       <c r="D3" t="n">
-        <v>380.1099974558534</v>
+        <v>665.4693852489434</v>
       </c>
       <c r="E3" t="n">
-        <v>220.8725424503979</v>
+        <v>506.2319302434878</v>
       </c>
       <c r="F3" t="n">
-        <v>74.3379844772829</v>
+        <v>359.6973722703727</v>
       </c>
       <c r="G3" t="n">
-        <v>47.30902621369997</v>
+        <v>221.6321658854671</v>
       </c>
       <c r="H3" t="n">
-        <v>47.30902621369997</v>
+        <v>114.6915088435658</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369997</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="J3" t="n">
-        <v>108.2048630683015</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="K3" t="n">
-        <v>338.9063907138141</v>
+        <v>278.0105538592121</v>
       </c>
       <c r="L3" t="n">
-        <v>710.5174612568478</v>
+        <v>649.6216244022453</v>
       </c>
       <c r="M3" t="n">
-        <v>1196.149274459038</v>
+        <v>987.4020823874839</v>
       </c>
       <c r="N3" t="n">
-        <v>1710.341330101587</v>
+        <v>1501.594138030033</v>
       </c>
       <c r="O3" t="n">
-        <v>2114.31092719146</v>
+        <v>1905.563735119905</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695919</v>
+        <v>2212.781883695914</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684998</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="R3" t="n">
-        <v>2365.451310684998</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="S3" t="n">
-        <v>2204.39754772579</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="T3" t="n">
-        <v>2004.893864886521</v>
+        <v>2165.947627845725</v>
       </c>
       <c r="U3" t="n">
-        <v>1776.714037348731</v>
+        <v>2062.073425141821</v>
       </c>
       <c r="V3" t="n">
-        <v>1541.561929116988</v>
+        <v>1826.921316910078</v>
       </c>
       <c r="W3" t="n">
-        <v>1287.324572388786</v>
+        <v>1572.683960181876</v>
       </c>
       <c r="X3" t="n">
-        <v>1079.473072183254</v>
+        <v>1364.832459976343</v>
       </c>
       <c r="Y3" t="n">
-        <v>871.7127734182998</v>
+        <v>1157.07216121139</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.30902621369997</v>
+        <v>363.3287990122096</v>
       </c>
       <c r="C4" t="n">
-        <v>47.30902621369997</v>
+        <v>363.3287990122096</v>
       </c>
       <c r="D4" t="n">
-        <v>47.30902621369997</v>
+        <v>363.3287990122096</v>
       </c>
       <c r="E4" t="n">
-        <v>47.30902621369997</v>
+        <v>363.3287990122096</v>
       </c>
       <c r="F4" t="n">
-        <v>47.30902621369997</v>
+        <v>216.4388515142992</v>
       </c>
       <c r="G4" t="n">
-        <v>47.30902621369997</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369997</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369997</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369997</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181659</v>
+        <v>88.80529410181629</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365673</v>
+        <v>197.4326649365668</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950615</v>
+        <v>322.3541198950607</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896764</v>
+        <v>449.7398382896754</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885957</v>
+        <v>551.3848716885944</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546222</v>
+        <v>614.8390752546208</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546222</v>
+        <v>614.8390752546208</v>
       </c>
       <c r="R4" t="n">
-        <v>460.846018120111</v>
+        <v>614.8390752546208</v>
       </c>
       <c r="S4" t="n">
-        <v>275.1727750750794</v>
+        <v>614.8390752546208</v>
       </c>
       <c r="T4" t="n">
-        <v>47.30902621369997</v>
+        <v>614.8390752546208</v>
       </c>
       <c r="U4" t="n">
-        <v>47.30902621369997</v>
+        <v>614.8390752546208</v>
       </c>
       <c r="V4" t="n">
-        <v>47.30902621369997</v>
+        <v>614.8390752546208</v>
       </c>
       <c r="W4" t="n">
-        <v>47.30902621369997</v>
+        <v>614.8390752546208</v>
       </c>
       <c r="X4" t="n">
-        <v>47.30902621369997</v>
+        <v>386.8495243566034</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.30902621369997</v>
+        <v>363.3287990122096</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1236.578376364604</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="C5" t="n">
-        <v>867.6158594241924</v>
+        <v>1723.514638661394</v>
       </c>
       <c r="D5" t="n">
-        <v>867.6158594241924</v>
+        <v>1365.248940054644</v>
       </c>
       <c r="E5" t="n">
-        <v>867.6158594241924</v>
+        <v>979.4606874563995</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6299546345849</v>
+        <v>568.474782666792</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>150.5109745649788</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>150.5109745649788</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.317548404538</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1623.178216428726</v>
+        <v>2092.477155601806</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
@@ -4649,22 +4649,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.69838933464703</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C7" t="n">
-        <v>97.69838933464703</v>
+        <v>344.90437809669</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4752,25 +4752,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y7" t="n">
-        <v>279.3468541648867</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995.909162857191</v>
+        <v>1160.852583904132</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>1160.852583904132</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.680947310029</v>
+        <v>802.5868852973811</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117851</v>
+        <v>416.7986326991368</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>409.8531319499334</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2348.677818127306</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2348.677818127306</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2348.677818127306</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1995.909162857191</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X8" t="n">
-        <v>1995.909162857191</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y8" t="n">
-        <v>1995.909162857191</v>
+        <v>1547.452423968253</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>458.7441094385871</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5038,43 +5038,43 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294614</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353396</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
@@ -5117,16 +5117,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.6138567886371</v>
+        <v>482.6709267727787</v>
       </c>
       <c r="C13" t="n">
-        <v>245.6776738607302</v>
+        <v>313.7347438448718</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>313.7347438448718</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>313.7347438448718</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>313.7347438448718</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.746393431758</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U13" t="n">
-        <v>1355.643526557401</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V13" t="n">
-        <v>1100.959038351514</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W13" t="n">
-        <v>811.5418683145538</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X13" t="n">
-        <v>583.5523174165364</v>
+        <v>703.4635059163088</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.5523174165364</v>
+        <v>482.6709267727787</v>
       </c>
     </row>
     <row r="14">
@@ -5260,55 +5260,55 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.85891762269</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294614</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353396</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604875</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>824.3287722635405</v>
+        <v>470.5284434797263</v>
       </c>
       <c r="C16" t="n">
-        <v>655.3925893356336</v>
+        <v>470.5284434797263</v>
       </c>
       <c r="D16" t="n">
-        <v>655.3925893356336</v>
+        <v>320.4118040673906</v>
       </c>
       <c r="E16" t="n">
-        <v>507.4794957532405</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F16" t="n">
-        <v>360.5895482553301</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1806.263889435571</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T16" t="n">
-        <v>1584.497274005097</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U16" t="n">
-        <v>1295.394407130741</v>
+        <v>1355.6435265574</v>
       </c>
       <c r="V16" t="n">
-        <v>1295.394407130741</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W16" t="n">
-        <v>1005.97723709378</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="X16" t="n">
-        <v>1005.97723709378</v>
+        <v>872.9694874534962</v>
       </c>
       <c r="Y16" t="n">
-        <v>1005.97723709378</v>
+        <v>652.1769083099661</v>
       </c>
     </row>
     <row r="17">
@@ -5494,67 +5494,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2536.15366264131</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N17" t="n">
-        <v>3362.809616117416</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O17" t="n">
-        <v>3865.782086996753</v>
+        <v>4075.97392775006</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.8310435707792</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8948606428723</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T19" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1355.643526557401</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1100.959038351514</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>811.5418683145538</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>742.479508401019</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.479508401019</v>
+        <v>277.2094992786342</v>
       </c>
     </row>
     <row r="20">
@@ -5752,31 +5752,31 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
         <v>4667.761053946815</v>
@@ -5788,7 +5788,7 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
@@ -5807,34 +5807,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
         <v>794.200663232024</v>
@@ -5843,13 +5843,13 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>637.1336314069201</v>
+        <v>211.1920047000663</v>
       </c>
       <c r="C22" t="n">
-        <v>637.1336314069201</v>
+        <v>211.1920047000663</v>
       </c>
       <c r="D22" t="n">
-        <v>487.0169919945844</v>
+        <v>211.1920047000663</v>
       </c>
       <c r="E22" t="n">
-        <v>339.1038984121913</v>
+        <v>211.1920047000663</v>
       </c>
       <c r="F22" t="n">
-        <v>339.1038984121913</v>
+        <v>211.1920047000663</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1691.130735667654</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1691.130735667654</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U22" t="n">
-        <v>1402.027868793298</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V22" t="n">
-        <v>1147.343380587411</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W22" t="n">
-        <v>857.9262105504503</v>
+        <v>841.6225995718535</v>
       </c>
       <c r="X22" t="n">
-        <v>857.9262105504503</v>
+        <v>613.6330486738361</v>
       </c>
       <c r="Y22" t="n">
-        <v>637.1336314069201</v>
+        <v>392.840469530306</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089256</v>
@@ -5989,28 +5989,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6089,7 +6089,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6098,7 +6098,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
         <v>2043.809373447819</v>
@@ -6107,7 +6107,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3549.018642500514</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C25" t="n">
-        <v>3476.428084934883</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D25" t="n">
-        <v>3476.428084934883</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E25" t="n">
-        <v>3328.51499135249</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F25" t="n">
-        <v>3328.51499135249</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G25" t="n">
-        <v>3160.812154727209</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>4496.535381004075</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T25" t="n">
-        <v>4274.768765573601</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U25" t="n">
-        <v>4274.768765573601</v>
+        <v>1355.643526557402</v>
       </c>
       <c r="V25" t="n">
-        <v>4020.084277367714</v>
+        <v>1100.959038351515</v>
       </c>
       <c r="W25" t="n">
-        <v>3730.667107330753</v>
+        <v>1039.911652727605</v>
       </c>
       <c r="X25" t="n">
-        <v>3730.667107330753</v>
+        <v>811.9221018295875</v>
       </c>
       <c r="Y25" t="n">
-        <v>3730.667107330753</v>
+        <v>591.1295226860574</v>
       </c>
     </row>
     <row r="26">
@@ -6217,10 +6217,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6232,22 +6232,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1069.293752345675</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2047.844055175504</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3027.596327402151</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3907.560977731605</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P26" t="n">
-        <v>4302.335344088783</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
         <v>487.9678785494859</v>
@@ -6296,7 +6296,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>533.2127443498364</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>411.1769646560685</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>411.1769646560685</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6417,19 +6417,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1453.060509258584</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>1453.060509258584</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>1163.643339221624</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>935.6537883236062</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>714.8612091800761</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1772.421240554552</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2750.97154338438</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>533.2127443498364</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>364.2765614219295</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>364.2765614219295</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>216.3634678395364</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>216.3634678395364</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1453.060509258584</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1453.060509258584</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>1163.643339221624</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>935.6537883236062</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>714.8612091800761</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6703,49 +6703,49 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193957</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E33" t="n">
         <v>487.9678785494859</v>
@@ -6770,7 +6770,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>692.8920075170273</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="C34" t="n">
-        <v>523.9558245891204</v>
+        <v>283.6540125875712</v>
       </c>
       <c r="D34" t="n">
-        <v>523.9558245891204</v>
+        <v>283.6540125875712</v>
       </c>
       <c r="E34" t="n">
-        <v>506.8067350374723</v>
+        <v>283.6540125875712</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>283.6540125875712</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>115.9511759622901</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V34" t="n">
-        <v>1163.957642384228</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W34" t="n">
-        <v>874.540472347267</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X34" t="n">
-        <v>874.540472347267</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y34" t="n">
-        <v>874.540472347267</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6940,16 +6940,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2215.249704195857</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2762.028521254639</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232732</v>
@@ -6964,25 +6964,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="36">
@@ -7022,7 +7022,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3531.125154183958</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C37" t="n">
-        <v>3362.188971256051</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="D37" t="n">
-        <v>3212.072331843715</v>
+        <v>331.580251073499</v>
       </c>
       <c r="E37" t="n">
-        <v>3064.159238261322</v>
+        <v>183.6671574911059</v>
       </c>
       <c r="F37" t="n">
-        <v>2917.269290763412</v>
+        <v>183.6671574911059</v>
       </c>
       <c r="G37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4705.657407298592</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>4705.657407298592</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>4705.657407298592</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>4705.657407298592</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>4450.972919092706</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>4161.555749055745</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>3933.566198157728</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>3712.773619014198</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="38">
@@ -7156,46 +7156,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>685.1208104866384</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1549.639626139993</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2528.189928969822</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3507.942201196468</v>
+        <v>3070.887536710053</v>
       </c>
       <c r="O38" t="n">
-        <v>4010.914672075805</v>
+        <v>3573.86000758939</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E39" t="n">
         <v>487.9678785494859</v>
@@ -7244,7 +7244,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3354.921000664853</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C40" t="n">
-        <v>3185.984817736946</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D40" t="n">
-        <v>3084.972127388693</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E40" t="n">
-        <v>3084.972127388693</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F40" t="n">
-        <v>3084.972127388693</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>4496.535381004075</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>4274.768765573601</v>
+        <v>1545.250526232427</v>
       </c>
       <c r="U40" t="n">
-        <v>4274.768765573601</v>
+        <v>1256.147659358071</v>
       </c>
       <c r="V40" t="n">
-        <v>4274.768765573601</v>
+        <v>1001.463171152184</v>
       </c>
       <c r="W40" t="n">
-        <v>3985.35159553664</v>
+        <v>712.0460011152229</v>
       </c>
       <c r="X40" t="n">
-        <v>3757.362044638623</v>
+        <v>484.0564502172056</v>
       </c>
       <c r="Y40" t="n">
-        <v>3536.569465495093</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="41">
@@ -7393,43 +7393,43 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
         <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001591</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
         <v>4653.975400188666</v>
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089898</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468572</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
@@ -7493,13 +7493,13 @@
         <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N42" t="n">
         <v>1715.000032008795</v>
@@ -7523,10 +7523,10 @@
         <v>2271.877220313404</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W42" t="n">
         <v>1554.419908487875</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>885.5519279771448</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="C43" t="n">
-        <v>716.6157450492379</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="D43" t="n">
-        <v>566.4991056369022</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E43" t="n">
-        <v>566.4991056369022</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F43" t="n">
-        <v>419.6091581389918</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G43" t="n">
         <v>339.1038984121913</v>
@@ -7572,16 +7572,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O43" t="n">
         <v>1646.12566951853</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T43" t="n">
-        <v>1866.513008862232</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1577.410141987875</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V43" t="n">
-        <v>1577.410141987875</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="W43" t="n">
-        <v>1287.992971950915</v>
+        <v>709.6864413838525</v>
       </c>
       <c r="X43" t="n">
-        <v>1287.992971950915</v>
+        <v>481.6968904858352</v>
       </c>
       <c r="Y43" t="n">
-        <v>1067.200392807385</v>
+        <v>339.1038984121913</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>416.1091927888612</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176194</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L44" t="n">
-        <v>1236.699401366028</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M44" t="n">
-        <v>2215.249704195857</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N44" t="n">
-        <v>3195.001976422504</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O44" t="n">
-        <v>3697.97444730184</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
         <v>2760.816196754298</v>
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390118</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>784.0235789048305</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>784.0235789048305</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>1163.957642384228</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>1163.957642384228</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X46" t="n">
-        <v>1163.957642384228</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y46" t="n">
-        <v>965.6720437350702</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>64.58008902262972</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>316.3602605005548</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>107.6070190727141</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476856</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>282.7041781993166</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>133.2530576400279</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476832</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9889,16 +9889,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>104.3976710547479</v>
+        <v>133.253057640026</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>216.9877583263338</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,28 +10351,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="M32" t="n">
-        <v>201.9664098701126</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,19 +10588,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>219.3344627260163</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10822,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>67.53663776704252</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10840,13 +10840,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>294.8707872801648</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>67.53663776704263</v>
+        <v>344.7025836476831</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11296,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570114</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>103.7862464855144</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12.58290416031693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>94.78885087083644</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>89.85750898279124</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>41.19024442900039</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>16.14213605696682</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>157.3379190746377</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>51.55114770987308</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>16.14057486881021</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>95.38216910865349</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>226.0860865689201</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>46.43139920179769</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>142.7838196116358</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>129.4563639904376</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>124.568774815564</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>78.80074644674391</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>17.26178070012983</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>48.61290957344163</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>91.26811680410449</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>86.32560112949569</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>77.41759119918731</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>22.28191068942891</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>802078.409852833</v>
+        <v>802078.4098528331</v>
       </c>
     </row>
     <row r="8">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448193</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
-        <v>615476.7696748239</v>
+        <v>615476.769674824</v>
       </c>
       <c r="F2" t="n">
-        <v>615476.7696748239</v>
+        <v>615476.7696748232</v>
       </c>
       <c r="G2" t="n">
         <v>615476.7696748236</v>
       </c>
       <c r="H2" t="n">
-        <v>615476.7696748239</v>
+        <v>615476.7696748236</v>
       </c>
       <c r="I2" t="n">
+        <v>615476.7696748234</v>
+      </c>
+      <c r="J2" t="n">
+        <v>615476.769674824</v>
+      </c>
+      <c r="K2" t="n">
         <v>615476.7696748241</v>
       </c>
-      <c r="J2" t="n">
-        <v>615476.7696748241</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>615476.7696748236</v>
+      </c>
+      <c r="M2" t="n">
         <v>615476.7696748237</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>615476.769674824</v>
       </c>
-      <c r="M2" t="n">
-        <v>615476.7696748239</v>
-      </c>
-      <c r="N2" t="n">
-        <v>615476.7696748241</v>
-      </c>
       <c r="O2" t="n">
-        <v>615476.7696748239</v>
+        <v>615476.7696748236</v>
       </c>
       <c r="P2" t="n">
-        <v>615476.7696748243</v>
+        <v>615476.7696748236</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106502</v>
+        <v>493391.6844106489</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446702</v>
+        <v>91792.63957446824</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,13 +26386,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832164</v>
+        <v>154726.5356832159</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220032</v>
+        <v>21342.0985822006</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235704.9591760451</v>
+        <v>235704.9591760455</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26429,37 +26429,37 @@
         <v>28561.83935289576</v>
       </c>
       <c r="F4" t="n">
+        <v>28561.83935289578</v>
+      </c>
+      <c r="G4" t="n">
+        <v>28561.83935289573</v>
+      </c>
+      <c r="H4" t="n">
+        <v>28561.83935289577</v>
+      </c>
+      <c r="I4" t="n">
+        <v>28561.83935289574</v>
+      </c>
+      <c r="J4" t="n">
         <v>28561.83935289576</v>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
         <v>28561.83935289575</v>
-      </c>
-      <c r="H4" t="n">
-        <v>28561.83935289574</v>
-      </c>
-      <c r="I4" t="n">
-        <v>28561.83935289576</v>
-      </c>
-      <c r="J4" t="n">
-        <v>28561.83935289575</v>
-      </c>
-      <c r="K4" t="n">
-        <v>28561.83935289576</v>
       </c>
       <c r="L4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="M4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="N4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="O4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="P4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289573</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140138</v>
+        <v>76261.10613140129</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371366</v>
@@ -26511,7 +26511,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-169050.3780732767</v>
+        <v>-169050.378073276</v>
       </c>
       <c r="C6" t="n">
-        <v>251733.2385439101</v>
+        <v>251733.2385439083</v>
       </c>
       <c r="D6" t="n">
-        <v>343525.8781183769</v>
+        <v>343525.8781183768</v>
       </c>
       <c r="E6" t="n">
-        <v>-236846.0019251922</v>
+        <v>-237517.9568274502</v>
       </c>
       <c r="F6" t="n">
-        <v>490531.4120682144</v>
+        <v>489859.457165956</v>
       </c>
       <c r="G6" t="n">
-        <v>490531.4120682142</v>
+        <v>489859.4571659563</v>
       </c>
       <c r="H6" t="n">
-        <v>490531.4120682146</v>
+        <v>489859.4571659563</v>
       </c>
       <c r="I6" t="n">
-        <v>490531.4120682147</v>
+        <v>489859.4571659557</v>
       </c>
       <c r="J6" t="n">
-        <v>335804.8763849983</v>
+        <v>335132.9214827407</v>
       </c>
       <c r="K6" t="n">
-        <v>469189.313486014</v>
+        <v>468517.3585837561</v>
       </c>
       <c r="L6" t="n">
-        <v>490531.4120682146</v>
+        <v>489859.4571659563</v>
       </c>
       <c r="M6" t="n">
-        <v>360889.0972292696</v>
+        <v>360217.1423270116</v>
       </c>
       <c r="N6" t="n">
-        <v>490531.4120682147</v>
+        <v>489859.4571659566</v>
       </c>
       <c r="O6" t="n">
-        <v>490531.4120682144</v>
+        <v>489859.4571659563</v>
       </c>
       <c r="P6" t="n">
-        <v>490531.4120682149</v>
+        <v>489859.4571659563</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435513</v>
+        <v>306.3599178435504</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26758,7 +26758,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26776,7 +26776,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712495</v>
+        <v>591.3628276712484</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435513</v>
+        <v>306.3599178435504</v>
       </c>
       <c r="C3" t="n">
-        <v>71.3837463735353</v>
+        <v>71.38374637353627</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26971,19 +26971,19 @@
         <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="J3" t="n">
         <v>-2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712495</v>
+        <v>591.3628276712484</v>
       </c>
       <c r="C4" t="n">
-        <v>82.9244450833061</v>
+        <v>82.92444508330716</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712495</v>
+        <v>591.3628276712484</v>
       </c>
       <c r="K4" t="n">
-        <v>82.9244450833061</v>
+        <v>82.92444508330716</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712495</v>
+        <v>591.3628276712484</v>
       </c>
       <c r="K4" t="n">
-        <v>82.9244450833061</v>
+        <v>82.92444508330716</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>337.4681716816718</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>138.6940976991119</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.9947207958794</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174271</v>
+        <v>72.50477145174295</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164567</v>
+        <v>180.9550379164568</v>
       </c>
       <c r="T2" t="n">
         <v>217.7045308089147</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>109.9258856401095</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714823</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356718</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100809</v>
+        <v>59.24433418100822</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>159.4432253296167</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>123.0625685855473</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27548,19 +27548,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4385270475933</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514145</v>
+        <v>138.8367272514146</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848756</v>
+        <v>54.30080173848768</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731814</v>
+        <v>39.90169565731828</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>152.4531265631662</v>
       </c>
       <c r="S4" t="n">
-        <v>30.5723503321272</v>
+        <v>214.3888609467085</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.5851113727656</v>
       </c>
       <c r="U4" t="n">
         <v>286.28889559408</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>195.2991352611449</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>167.0553831795781</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>56.32900342769302</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>105.2976195790726</v>
+        <v>5.984738727581288</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27824,7 +27824,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,10 +27864,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>61.43312139252174</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>100.3558755794341</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,22 +28019,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>96.50703242634964</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>244.6259536798933</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28626,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672567</v>
+        <v>1.231597659672563</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212168</v>
+        <v>12.61309953212164</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452669</v>
+        <v>47.48116877452654</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676347</v>
+        <v>104.5303118676343</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015745</v>
+        <v>156.663840801574</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787788</v>
+        <v>194.3553476787782</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589808</v>
+        <v>216.2577725589802</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095255</v>
+        <v>219.7570494095248</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811564</v>
+        <v>207.5103501811558</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579899</v>
+        <v>177.1052829579893</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.998691770966</v>
+        <v>132.9986917709656</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940697</v>
+        <v>77.36434648940673</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978865</v>
+        <v>28.06503166978856</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216666</v>
+        <v>5.391318755216648</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380536</v>
+        <v>0.09852781277380505</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540539</v>
+        <v>0.6589628421540518</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014153</v>
+        <v>6.364193765014132</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784791</v>
+        <v>22.68797504784784</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403717</v>
+        <v>62.25753764403698</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683588</v>
+        <v>106.4080480683584</v>
       </c>
       <c r="L3" t="n">
-        <v>143.078752196651</v>
+        <v>143.0787521966506</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247354</v>
+        <v>166.9661552247349</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302335</v>
+        <v>171.385252530233</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382937</v>
+        <v>156.7840232382932</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723825</v>
+        <v>125.8330009723821</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338414</v>
+        <v>84.11602876338388</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163504</v>
+        <v>40.91349997163491</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422112</v>
+        <v>12.23994577422108</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945506</v>
+        <v>2.656082683945497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276672</v>
+        <v>0.04335281856276658</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654203</v>
+        <v>0.5524523108654186</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967105</v>
+        <v>4.911803272967089</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584374</v>
+        <v>16.61374767584369</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818522</v>
+        <v>39.0583783781851</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509156</v>
+        <v>64.18491393509134</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448261</v>
+        <v>82.13459174448235</v>
       </c>
       <c r="M4" t="n">
-        <v>86.5994108750222</v>
+        <v>86.59941087502193</v>
       </c>
       <c r="N4" t="n">
-        <v>84.5402704436148</v>
+        <v>84.54027044361453</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395962</v>
+        <v>78.08662299395938</v>
       </c>
       <c r="P4" t="n">
-        <v>66.816595852305</v>
+        <v>66.81659585230479</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437625</v>
+        <v>46.26034759437611</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400335</v>
+        <v>24.84026481400327</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263732</v>
+        <v>9.627737090263702</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515887</v>
+        <v>2.360478055515879</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084115</v>
+        <v>0.03013376241084105</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32709,40 +32709,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32861,43 +32861,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -33274,7 +33274,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33742,7 +33742,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302213</v>
+        <v>92.58102251302181</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277586</v>
+        <v>260.7194023277582</v>
       </c>
       <c r="L2" t="n">
-        <v>376.250147259242</v>
+        <v>376.2501472592414</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245406</v>
+        <v>435.4250728245399</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249188</v>
+        <v>427.6909102249181</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222151</v>
+        <v>358.2123200222144</v>
       </c>
       <c r="P2" t="n">
-        <v>267.670995374203</v>
+        <v>267.6709953742024</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564212</v>
+        <v>123.0079925564208</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.51094631777931</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065784</v>
+        <v>233.031846106578</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202361</v>
+        <v>375.3647177202356</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527171</v>
+        <v>341.1923818032714</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904537</v>
+        <v>519.3859147904532</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705788</v>
+        <v>408.0500980705783</v>
       </c>
       <c r="P3" t="n">
-        <v>99.46561263076629</v>
+        <v>310.3213621979889</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132117</v>
+        <v>154.2115424132115</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920871</v>
+        <v>41.91542210920849</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047987</v>
+        <v>109.7246170047985</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368628</v>
+        <v>126.1832878368625</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228434</v>
+        <v>128.6724428228431</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079993</v>
+        <v>102.6717509079991</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719849</v>
+        <v>64.09515511719827</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400168</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400175</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>835.0060136122281</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282469</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597766</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282437</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400155</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
@@ -36609,16 +36609,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>355.1919758584674</v>
+        <v>384.0473624437454</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>672.577872718666</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -37071,28 +37071,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>588.5891319493445</v>
       </c>
       <c r="M32" t="n">
-        <v>740.8875257003393</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37308,19 +37308,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>727.3874636142355</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37390,7 +37390,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>404.727924322443</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>989.6487598248956</v>
@@ -37560,13 +37560,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>693.6327734995367</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>575.5896386552618</v>
+        <v>852.7555845359025</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>323.786018525724</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>502.5482327048862</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
         <v>463.1092954636242</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2530658.200077401</v>
+        <v>2534063.69120185</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359934</v>
+        <v>6663746.095359937</v>
       </c>
     </row>
     <row r="8">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45.26566998180881</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>326.8617025836455</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>38.5025695175271</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>72.50477145174317</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.9550379164569</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>105.8712504714823</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356723</v>
+        <v>66.70865780356731</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>197.5086460108761</v>
+        <v>74.44607742532536</v>
       </c>
       <c r="U3" t="n">
-        <v>102.8354606768648</v>
+        <v>225.8980292624121</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -822,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4385270475933</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>121.3842648627975</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>23.2855180909499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>163.8950372953901</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>95.60231281716823</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>142.6307342906311</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>26.26583888007739</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,10 +1144,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>352.3510486282732</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>30.60408762095418</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>59.66385641544551</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881778</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>71.23695738819178</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>123.2840871772261</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>56.57645366377792</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>138.7178665021162</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1824,16 +1824,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>51.56887637424951</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2058,7 +2058,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>270.0697021486461</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>15.0743711067587</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>114.4746605491551</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>60.43691176767093</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>120.6353666620239</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>20.18624009875676</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>267.0944121070342</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>87.22506181228431</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>128.2808324720647</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951286</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.607764387321</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>97.38331399798825</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -3957,16 +3957,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>141.1670621529075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4033,7 +4033,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>163.689844124971</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>159.2671067614329</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2319.72841171347</v>
+        <v>1245.603427929201</v>
       </c>
       <c r="C2" t="n">
-        <v>1950.765894773058</v>
+        <v>1245.603427929201</v>
       </c>
       <c r="D2" t="n">
-        <v>1592.500196166307</v>
+        <v>1245.603427929201</v>
       </c>
       <c r="E2" t="n">
-        <v>1206.711943568063</v>
+        <v>1245.603427929201</v>
       </c>
       <c r="F2" t="n">
-        <v>795.7260387784555</v>
+        <v>834.6175231395939</v>
       </c>
       <c r="G2" t="n">
-        <v>377.4723621567762</v>
+        <v>416.3638465179146</v>
       </c>
       <c r="H2" t="n">
-        <v>47.30902621369987</v>
+        <v>86.20051057483829</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369987</v>
+        <v>47.3090262136998</v>
       </c>
       <c r="J2" t="n">
         <v>138.9642385015914</v>
       </c>
       <c r="K2" t="n">
-        <v>397.076446806072</v>
+        <v>397.0764468060713</v>
       </c>
       <c r="L2" t="n">
-        <v>769.564092592721</v>
+        <v>769.56409259272</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689015</v>
+        <v>1200.634914689014</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811684</v>
+        <v>1624.048915811682</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633677</v>
+        <v>1978.679112633674</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054137</v>
+        <v>2243.673398054134</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684994</v>
+        <v>2365.45131068499</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.451310684994</v>
+        <v>2292.214167804441</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.451310684994</v>
+        <v>2109.431301222162</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.451310684994</v>
+        <v>1889.527734748511</v>
       </c>
       <c r="U2" t="n">
-        <v>2365.451310684994</v>
+        <v>1635.742759905013</v>
       </c>
       <c r="V2" t="n">
-        <v>2365.451310684994</v>
+        <v>1635.742759905013</v>
       </c>
       <c r="W2" t="n">
-        <v>2365.451310684994</v>
+        <v>1635.742759905013</v>
       </c>
       <c r="X2" t="n">
-        <v>2365.451310684994</v>
+        <v>1635.742759905013</v>
       </c>
       <c r="Y2" t="n">
-        <v>2365.451310684994</v>
+        <v>1245.603427929201</v>
       </c>
     </row>
     <row r="3">
@@ -4397,7 +4397,7 @@
         <v>506.2319302434878</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6973722703727</v>
+        <v>359.6973722703728</v>
       </c>
       <c r="G3" t="n">
         <v>221.6321658854671</v>
@@ -4406,40 +4406,40 @@
         <v>114.6915088435658</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369987</v>
+        <v>47.3090262136998</v>
       </c>
       <c r="J3" t="n">
-        <v>47.30902621369987</v>
+        <v>108.204863068301</v>
       </c>
       <c r="K3" t="n">
-        <v>278.0105538592121</v>
+        <v>338.9063907138129</v>
       </c>
       <c r="L3" t="n">
-        <v>649.6216244022453</v>
+        <v>710.5174612568458</v>
       </c>
       <c r="M3" t="n">
-        <v>987.4020823874839</v>
+        <v>1196.149274459035</v>
       </c>
       <c r="N3" t="n">
-        <v>1501.594138030033</v>
+        <v>1654.263565019109</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.563735119905</v>
+        <v>2058.233162108981</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695914</v>
+        <v>2365.45131068499</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684994</v>
+        <v>2365.45131068499</v>
       </c>
       <c r="R3" t="n">
-        <v>2365.451310684994</v>
+        <v>2365.45131068499</v>
       </c>
       <c r="S3" t="n">
-        <v>2365.451310684994</v>
+        <v>2365.45131068499</v>
       </c>
       <c r="T3" t="n">
-        <v>2165.947627845725</v>
+        <v>2290.253252679611</v>
       </c>
       <c r="U3" t="n">
         <v>2062.073425141821</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>363.3287990122096</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="C4" t="n">
-        <v>363.3287990122096</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="D4" t="n">
-        <v>363.3287990122096</v>
+        <v>464.7224358422836</v>
       </c>
       <c r="E4" t="n">
-        <v>363.3287990122096</v>
+        <v>316.8093422598905</v>
       </c>
       <c r="F4" t="n">
-        <v>216.4388515142992</v>
+        <v>169.9193947619802</v>
       </c>
       <c r="G4" t="n">
-        <v>47.30902621369987</v>
+        <v>169.9193947619802</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369987</v>
+        <v>47.3090262136998</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369987</v>
+        <v>47.3090262136998</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369987</v>
+        <v>47.3090262136998</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181629</v>
+        <v>88.80529410181603</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365668</v>
+        <v>197.4326649365663</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950607</v>
+        <v>322.35411989506</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896754</v>
+        <v>449.7398382896744</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885944</v>
+        <v>551.3848716885933</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546208</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546208</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546208</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546208</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="T4" t="n">
-        <v>614.8390752546208</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="U4" t="n">
-        <v>614.8390752546208</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="V4" t="n">
-        <v>614.8390752546208</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="W4" t="n">
-        <v>614.8390752546208</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="X4" t="n">
-        <v>386.8495243566034</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="Y4" t="n">
-        <v>363.3287990122096</v>
+        <v>614.8390752546194</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2092.477155601806</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C5" t="n">
-        <v>1723.514638661394</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>1365.248940054644</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>979.4606874563995</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>568.474782666792</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>150.5109745649788</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>150.5109745649788</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y5" t="n">
-        <v>2092.477155601806</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>513.8405610245969</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C7" t="n">
-        <v>344.90437809669</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>396.3638799638589</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>396.3638799638589</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>249.4739324659486</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>80.47413220428101</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1160.852583904132</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C8" t="n">
-        <v>1160.852583904132</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D8" t="n">
-        <v>802.5868852973811</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E8" t="n">
-        <v>416.7986326991368</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F8" t="n">
-        <v>409.8531319499334</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1937.591755944065</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>1547.452423968253</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4886,22 +4886,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940987</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117056</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>283.2093037137952</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2095034521276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5038,7 +5038,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
         <v>451.8458144277729</v>
@@ -5047,40 +5047,40 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1898.858917622689</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294614</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353396</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232733</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5117,16 +5117,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>482.6709267727787</v>
+        <v>657.5961351655762</v>
       </c>
       <c r="C13" t="n">
-        <v>313.7347438448718</v>
+        <v>657.5961351655762</v>
       </c>
       <c r="D13" t="n">
-        <v>313.7347438448718</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="E13" t="n">
-        <v>313.7347438448718</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F13" t="n">
-        <v>313.7347438448718</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839444</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5226,25 +5226,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1831.814085117607</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.65758193153</v>
+        <v>1831.814085117607</v>
       </c>
       <c r="U13" t="n">
-        <v>1475.554715057174</v>
+        <v>1542.71121824325</v>
       </c>
       <c r="V13" t="n">
-        <v>1220.870226851287</v>
+        <v>1288.026730037363</v>
       </c>
       <c r="W13" t="n">
-        <v>931.4530568143261</v>
+        <v>1288.026730037363</v>
       </c>
       <c r="X13" t="n">
-        <v>703.4635059163088</v>
+        <v>1060.037179139346</v>
       </c>
       <c r="Y13" t="n">
-        <v>482.6709267727787</v>
+        <v>839.244599995816</v>
       </c>
     </row>
     <row r="14">
@@ -5257,58 +5257,58 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551634</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1898.85891762269</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.390822294614</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353396</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232733</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679679</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604875</v>
@@ -5317,7 +5317,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
@@ -5354,16 +5354,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5372,25 +5372,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>470.5284434797263</v>
+        <v>554.7329138614817</v>
       </c>
       <c r="C16" t="n">
-        <v>470.5284434797263</v>
+        <v>385.7967309335748</v>
       </c>
       <c r="D16" t="n">
-        <v>320.4118040673906</v>
+        <v>235.6800915212391</v>
       </c>
       <c r="E16" t="n">
-        <v>263.2638710736755</v>
+        <v>235.6800915212391</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736755</v>
+        <v>235.6800915212391</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862231</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1644.746393431757</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1355.6435265574</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1100.959038351514</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W16" t="n">
-        <v>1100.959038351514</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="X16" t="n">
-        <v>872.9694874534962</v>
+        <v>736.3813786917215</v>
       </c>
       <c r="Y16" t="n">
-        <v>652.1769083099661</v>
+        <v>736.3813786917215</v>
       </c>
     </row>
     <row r="17">
@@ -5494,13 +5494,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
@@ -5512,49 +5512,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.328657580449</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807095</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.97392775006</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107238</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.03465586292</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5585,22 +5585,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839444</v>
+        <v>391.866433243363</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839444</v>
+        <v>391.866433243363</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839444</v>
+        <v>391.866433243363</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839444</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839444</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839444</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839444</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786342</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="20">
@@ -5752,19 +5752,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232732</v>
@@ -5779,16 +5779,16 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
@@ -5822,7 +5822,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5831,25 +5831,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>211.1920047000663</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C22" t="n">
-        <v>211.1920047000663</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D22" t="n">
-        <v>211.1920047000663</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>211.1920047000663</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>211.1920047000663</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1674.827124689057</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1385.724257814701</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1131.039769608814</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>841.6225995718535</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>613.6330486738361</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>392.840469530306</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089256</v>
@@ -5989,19 +5989,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2432.390822294612</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
         <v>3482.142110232732</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6089,7 +6089,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6098,7 +6098,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
         <v>2043.809373447819</v>
@@ -6107,7 +6107,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6150,16 +6150,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
         <v>1646.12566951853</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1644.746393431758</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1355.643526557402</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1100.959038351515</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>1039.911652727605</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>811.9221018295875</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>591.1295226860574</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3944.053400686433</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4338.827767043611</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
@@ -6311,7 +6311,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6323,22 +6323,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6408,22 +6408,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
         <v>498.0020784221642</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6469,16 +6469,16 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1772.421240554552</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2750.97154338438</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3297.750360443163</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
         <v>4195.497197679678</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E30" t="n">
         <v>487.9678785494859</v>
@@ -6533,7 +6533,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
         <v>487.9678785494859</v>
@@ -6770,7 +6770,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>452.5901955154781</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="C34" t="n">
-        <v>283.6540125875712</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="D34" t="n">
-        <v>283.6540125875712</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E34" t="n">
-        <v>283.6540125875712</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F34" t="n">
-        <v>283.6540125875712</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
-        <v>115.9511759622901</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1445.473983799873</v>
+        <v>1183.268173796934</v>
       </c>
       <c r="V34" t="n">
-        <v>1190.789495593986</v>
+        <v>928.5836855910466</v>
       </c>
       <c r="W34" t="n">
-        <v>901.3723255570255</v>
+        <v>639.1665155540859</v>
       </c>
       <c r="X34" t="n">
-        <v>673.3827746590082</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="Y34" t="n">
-        <v>452.5901955154781</v>
+        <v>411.1769646560685</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6964,25 +6964,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>481.6968904858347</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>481.6968904858347</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>331.580251073499</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>183.6671574911059</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>183.6671574911059</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839442</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X37" t="n">
-        <v>481.6968904858347</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y37" t="n">
-        <v>481.6968904858347</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="38">
@@ -7186,16 +7186,16 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3070.887536710053</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3573.86000758939</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
         <v>487.9678785494859</v>
@@ -7244,7 +7244,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
         <v>95.56103444839442</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1545.250526232427</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1256.147659358071</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>1001.463171152184</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
-        <v>712.0460011152229</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X40" t="n">
-        <v>484.0564502172056</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y40" t="n">
-        <v>263.2638710736754</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001591</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7411,7 +7411,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
         <v>1106.569146563073</v>
@@ -7426,10 +7426,10 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q41" t="n">
         <v>4653.975400188666</v>
@@ -7438,25 +7438,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7490,16 +7490,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
         <v>1715.000032008795</v>
@@ -7511,7 +7511,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7520,16 +7520,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
         <v>1346.568408282342</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>339.1038984121913</v>
+        <v>1072.13963479646</v>
       </c>
       <c r="C43" t="n">
-        <v>339.1038984121913</v>
+        <v>903.203451868553</v>
       </c>
       <c r="D43" t="n">
-        <v>339.1038984121913</v>
+        <v>753.0868124562172</v>
       </c>
       <c r="E43" t="n">
-        <v>339.1038984121913</v>
+        <v>605.1737188738241</v>
       </c>
       <c r="F43" t="n">
-        <v>339.1038984121913</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G43" t="n">
         <v>339.1038984121913</v>
@@ -7572,16 +7572,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
         <v>1646.12566951853</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.657581931531</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.7880996267</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208131</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838525</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858352</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="Y43" t="n">
-        <v>339.1038984121913</v>
+        <v>1253.788099626699</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>416.1091927888612</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1070.832524924161</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1521.86673817257</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>2055.398642844494</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N44" t="n">
-        <v>2602.177459903276</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839441</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839441</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839441</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839441</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839441</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1573.700985258641</v>
       </c>
       <c r="V46" t="n">
-        <v>999.1036114208126</v>
+        <v>1319.016497052754</v>
       </c>
       <c r="W46" t="n">
-        <v>709.6864413838521</v>
+        <v>1029.599327015793</v>
       </c>
       <c r="X46" t="n">
-        <v>481.6968904858347</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="Y46" t="n">
-        <v>260.9043113423046</v>
+        <v>801.6097761177758</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>64.58008902262972</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>316.3602605005548</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>422.6981671895397</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>55.86574532263788</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>344.7025836476847</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8932,25 +8932,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>344.7025836476856</v>
+        <v>57.67224444723735</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400279</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476853</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9643,7 +9643,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>344.7025836476832</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>133.253057640026</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10117,19 +10117,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>216.9877583263338</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10834,19 +10834,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
-        <v>294.8707872801648</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476831</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>176.2173930448432</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>132.9990175570114</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>94.78885087083644</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>66.48493815421581</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>89.85750898279124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>27.30794175691199</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>94.86508627231967</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>16.14213605696682</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>164.7576090751786</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>51.55114770987308</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>226.0860865689201</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24888,7 +24888,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>124.568774815564</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>19.11742609857868</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>78.80074644674391</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>91.26811680410449</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
     </row>
     <row r="41">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>48.03773402494299</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>77.41759119918731</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.14213605696625</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>126.94473144418</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>870603.7608981951</v>
+        <v>870603.760898195</v>
       </c>
     </row>
     <row r="3">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>802078.4098528331</v>
+        <v>802078.409852833</v>
       </c>
     </row>
     <row r="8">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448193</v>
+      </c>
+      <c r="C2" t="n">
         <v>636307.3716448196</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.3716448193</v>
-      </c>
       <c r="D2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
+        <v>615476.7696748236</v>
+      </c>
+      <c r="F2" t="n">
+        <v>615476.7696748239</v>
+      </c>
+      <c r="G2" t="n">
         <v>615476.769674824</v>
       </c>
-      <c r="F2" t="n">
-        <v>615476.7696748232</v>
-      </c>
-      <c r="G2" t="n">
-        <v>615476.7696748236</v>
-      </c>
       <c r="H2" t="n">
-        <v>615476.7696748236</v>
+        <v>615476.7696748234</v>
       </c>
       <c r="I2" t="n">
+        <v>615476.7696748233</v>
+      </c>
+      <c r="J2" t="n">
         <v>615476.7696748234</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>615476.7696748239</v>
+      </c>
+      <c r="L2" t="n">
         <v>615476.769674824</v>
       </c>
-      <c r="K2" t="n">
-        <v>615476.7696748241</v>
-      </c>
-      <c r="L2" t="n">
-        <v>615476.7696748236</v>
-      </c>
       <c r="M2" t="n">
+        <v>615476.7696748239</v>
+      </c>
+      <c r="N2" t="n">
         <v>615476.7696748237</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>615476.7696748243</v>
+      </c>
+      <c r="P2" t="n">
         <v>615476.769674824</v>
-      </c>
-      <c r="O2" t="n">
-        <v>615476.7696748236</v>
-      </c>
-      <c r="P2" t="n">
-        <v>615476.7696748236</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106489</v>
+        <v>493391.6844106477</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446824</v>
+        <v>91792.63957446939</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,13 +26386,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>154726.5356832159</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.0985822006</v>
+        <v>21342.09858220087</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235704.9591760455</v>
+        <v>235704.9591760457</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26426,22 +26426,22 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
+        <v>28561.83935289575</v>
+      </c>
+      <c r="F4" t="n">
         <v>28561.83935289576</v>
       </c>
-      <c r="F4" t="n">
-        <v>28561.83935289578</v>
-      </c>
       <c r="G4" t="n">
-        <v>28561.83935289573</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="I4" t="n">
-        <v>28561.83935289574</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="J4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="K4" t="n">
         <v>28561.83935289575</v>
@@ -26456,10 +26456,10 @@
         <v>28561.83935289575</v>
       </c>
       <c r="O4" t="n">
+        <v>28561.8393528957</v>
+      </c>
+      <c r="P4" t="n">
         <v>28561.83935289574</v>
-      </c>
-      <c r="P4" t="n">
-        <v>28561.83935289573</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140129</v>
+        <v>76261.10613140123</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-169050.378073276</v>
+        <v>-169050.3780732754</v>
       </c>
       <c r="C6" t="n">
-        <v>251733.2385439083</v>
+        <v>251733.2385439074</v>
       </c>
       <c r="D6" t="n">
-        <v>343525.8781183768</v>
+        <v>343525.8781183769</v>
       </c>
       <c r="E6" t="n">
-        <v>-237517.9568274502</v>
+        <v>-236913.1974154183</v>
       </c>
       <c r="F6" t="n">
-        <v>489859.457165956</v>
+        <v>490464.2165779886</v>
       </c>
       <c r="G6" t="n">
-        <v>489859.4571659563</v>
+        <v>490464.2165779888</v>
       </c>
       <c r="H6" t="n">
-        <v>489859.4571659563</v>
+        <v>490464.2165779882</v>
       </c>
       <c r="I6" t="n">
-        <v>489859.4571659557</v>
+        <v>490464.2165779881</v>
       </c>
       <c r="J6" t="n">
-        <v>335132.9214827407</v>
+        <v>335737.6808947723</v>
       </c>
       <c r="K6" t="n">
-        <v>468517.3585837561</v>
+        <v>469122.1179957878</v>
       </c>
       <c r="L6" t="n">
-        <v>489859.4571659563</v>
+        <v>490464.2165779888</v>
       </c>
       <c r="M6" t="n">
-        <v>360217.1423270116</v>
+        <v>360821.9017390439</v>
       </c>
       <c r="N6" t="n">
-        <v>489859.4571659566</v>
+        <v>490464.2165779885</v>
       </c>
       <c r="O6" t="n">
-        <v>489859.4571659563</v>
+        <v>490464.2165779891</v>
       </c>
       <c r="P6" t="n">
-        <v>489859.4571659563</v>
+        <v>490464.2165779888</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435504</v>
+        <v>306.3599178435495</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26758,7 +26758,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26776,7 +26776,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
         <v>1089.776700593298</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712484</v>
+        <v>591.3628276712475</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435504</v>
+        <v>306.3599178435495</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353627</v>
+        <v>71.38374637353718</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26971,7 +26971,7 @@
         <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,10 +26980,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712484</v>
+        <v>591.3628276712475</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330716</v>
+        <v>82.92444508330813</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712484</v>
+        <v>591.3628276712475</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330716</v>
+        <v>82.92444508330823</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712484</v>
+        <v>591.3628276712475</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330716</v>
+        <v>82.92444508330813</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>337.4681716816718</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958794</v>
+        <v>124.4921512783524</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174295</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164568</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7045308089147</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100822</v>
+        <v>59.24433418100833</v>
       </c>
       <c r="S3" t="n">
-        <v>159.4432253296167</v>
+        <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>123.0625685855507</v>
       </c>
       <c r="U3" t="n">
-        <v>123.0625685855473</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4385270475933</v>
       </c>
       <c r="H4" t="n">
-        <v>157.3153692344725</v>
+        <v>35.93110437167498</v>
       </c>
       <c r="I4" t="n">
         <v>138.8367272514146</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848768</v>
+        <v>54.30080173848779</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731828</v>
+        <v>39.90169565731841</v>
       </c>
       <c r="R4" t="n">
-        <v>152.4531265631662</v>
+        <v>152.4531265631663</v>
       </c>
       <c r="S4" t="n">
-        <v>214.3888609467085</v>
+        <v>214.3888609467086</v>
       </c>
       <c r="T4" t="n">
         <v>225.5851113727656</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>195.2991352611449</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>218.8388043680905</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>56.32900342769302</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>5.984738727581288</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>129.9050499617178</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,10 +27864,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>61.43312139252174</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>149.2278925609831</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>96.50703242634964</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28626,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672563</v>
+        <v>1.23159765967256</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212164</v>
+        <v>12.61309953212161</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452654</v>
+        <v>47.48116877452641</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676343</v>
+        <v>104.530311867634</v>
       </c>
       <c r="K2" t="n">
-        <v>156.663840801574</v>
+        <v>156.6638408015735</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787782</v>
+        <v>194.3553476787777</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589802</v>
+        <v>216.2577725589796</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095248</v>
+        <v>219.7570494095242</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811558</v>
+        <v>207.5103501811552</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579893</v>
+        <v>177.1052829579888</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709656</v>
+        <v>132.9986917709653</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940673</v>
+        <v>77.36434648940651</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978856</v>
+        <v>28.06503166978849</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216648</v>
+        <v>5.391318755216634</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380505</v>
+        <v>0.09852781277380478</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540518</v>
+        <v>0.6589628421540499</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014132</v>
+        <v>6.364193765014114</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784784</v>
+        <v>22.68797504784778</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403698</v>
+        <v>62.2575376440368</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683584</v>
+        <v>106.4080480683581</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966506</v>
+        <v>143.0787521966502</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247349</v>
+        <v>166.9661552247345</v>
       </c>
       <c r="N3" t="n">
-        <v>171.385252530233</v>
+        <v>171.3852525302325</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382932</v>
+        <v>156.7840232382927</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723821</v>
+        <v>125.8330009723817</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338388</v>
+        <v>84.11602876338364</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163491</v>
+        <v>40.9134999716348</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422108</v>
+        <v>12.23994577422105</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945497</v>
+        <v>2.65608268394549</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276658</v>
+        <v>0.04335281856276646</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654186</v>
+        <v>0.5524523108654171</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967089</v>
+        <v>4.911803272967076</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584369</v>
+        <v>16.61374767584364</v>
       </c>
       <c r="J4" t="n">
-        <v>39.0583783781851</v>
+        <v>39.05837837818498</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509134</v>
+        <v>64.18491393509117</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448235</v>
+        <v>82.13459174448211</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502193</v>
+        <v>86.59941087502169</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361453</v>
+        <v>84.54027044361429</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395938</v>
+        <v>78.08662299395917</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230479</v>
+        <v>66.8165958523046</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437611</v>
+        <v>46.26034759437597</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400327</v>
+        <v>24.8402648140032</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263702</v>
+        <v>9.627737090263674</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515879</v>
+        <v>2.360478055515872</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084105</v>
+        <v>0.03013376241084097</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32709,40 +32709,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32861,43 +32861,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302181</v>
+        <v>92.58102251302151</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277582</v>
+        <v>260.7194023277577</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592414</v>
+        <v>376.2501472592409</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245399</v>
+        <v>435.4250728245393</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249181</v>
+        <v>427.6909102249175</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222144</v>
+        <v>358.2123200222138</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742024</v>
+        <v>267.6709953742019</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564208</v>
+        <v>123.0079925564204</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>61.51094631777895</v>
       </c>
       <c r="K3" t="n">
-        <v>233.031846106578</v>
+        <v>233.0318461065777</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202356</v>
+        <v>375.3647177202351</v>
       </c>
       <c r="M3" t="n">
-        <v>341.1923818032714</v>
+        <v>490.537185052716</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904532</v>
+        <v>462.7417076364389</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705783</v>
+        <v>408.0500980705779</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979889</v>
+        <v>310.3213621979886</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132115</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920849</v>
+        <v>41.91542210920832</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047985</v>
+        <v>109.7246170047982</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368625</v>
+        <v>126.1832878368623</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228431</v>
+        <v>128.6724428228429</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079991</v>
+        <v>102.6717509079988</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719827</v>
+        <v>64.09515511719809</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>800.2926980400168</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35649,28 +35649,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>800.2926980400175</v>
+        <v>513.2623588395695</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282469</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597766</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,25 +36123,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359043</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>800.2926980400155</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882193</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>384.0473624437454</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36837,19 +36837,19 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>672.577872718666</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37554,19 +37554,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>693.6327734995367</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359025</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636243</v>
+        <v>427.0116978485627</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>323.786018525724</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>766.6741794499112</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
